--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/CDE/20/seed5/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.102</v>
+        <v>16.322</v>
       </c>
     </row>
     <row r="3">
@@ -488,10 +488,10 @@
         <v>-12.16</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.574000000000001</v>
+        <v>-7.834000000000001</v>
       </c>
       <c r="E3" t="n">
-        <v>16.826</v>
+        <v>16.838</v>
       </c>
     </row>
     <row r="4">
@@ -505,7 +505,7 @@
         <v>-13.95</v>
       </c>
       <c r="D4" t="n">
-        <v>-7.476000000000001</v>
+        <v>-7.769</v>
       </c>
       <c r="E4" t="n">
         <v>17.51</v>
@@ -593,7 +593,7 @@
         <v>-7.01</v>
       </c>
       <c r="E9" t="n">
-        <v>16.832</v>
+        <v>17.145</v>
       </c>
     </row>
     <row r="10">
@@ -621,7 +621,7 @@
         <v>3.8</v>
       </c>
       <c r="C11" t="n">
-        <v>-13.132</v>
+        <v>-12.27</v>
       </c>
       <c r="D11" t="n">
         <v>-8.220000000000001</v>
@@ -638,7 +638,7 @@
         <v>4.54</v>
       </c>
       <c r="C12" t="n">
-        <v>-11.046</v>
+        <v>-10.771</v>
       </c>
       <c r="D12" t="n">
         <v>-6.85</v>
@@ -675,7 +675,7 @@
         <v>-11.3</v>
       </c>
       <c r="D14" t="n">
-        <v>-7.322</v>
+        <v>-7.597999999999999</v>
       </c>
       <c r="E14" t="n">
         <v>17.29</v>
@@ -689,13 +689,13 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-13.572</v>
+        <v>-13.023</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
       </c>
       <c r="E15" t="n">
-        <v>16.54</v>
+        <v>16.182</v>
       </c>
     </row>
     <row r="16">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.236</v>
+        <v>16.35</v>
       </c>
     </row>
     <row r="20">
@@ -780,7 +780,7 @@
         <v>-10.64</v>
       </c>
       <c r="E20" t="n">
-        <v>16.356</v>
+        <v>16.31</v>
       </c>
     </row>
     <row r="21">
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.144</v>
+        <v>17.135</v>
       </c>
     </row>
     <row r="26">
@@ -879,7 +879,7 @@
         <v>-10.59</v>
       </c>
       <c r="D26" t="n">
-        <v>-7.986</v>
+        <v>-7.825000000000001</v>
       </c>
       <c r="E26" t="n">
         <v>13.83</v>
@@ -893,13 +893,13 @@
         <v>5.54</v>
       </c>
       <c r="C27" t="n">
-        <v>-13.472</v>
+        <v>-13.151</v>
       </c>
       <c r="D27" t="n">
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.21</v>
+        <v>16.517</v>
       </c>
     </row>
     <row r="28">
@@ -910,13 +910,13 @@
         <v>5.47</v>
       </c>
       <c r="C28" t="n">
-        <v>-12.88</v>
+        <v>-13.082</v>
       </c>
       <c r="D28" t="n">
         <v>-7.75</v>
       </c>
       <c r="E28" t="n">
-        <v>16.402</v>
+        <v>16.634</v>
       </c>
     </row>
     <row r="29">
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>15.88</v>
+        <v>16.354</v>
       </c>
     </row>
     <row r="31">
@@ -961,10 +961,10 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.046</v>
+        <v>-12.857</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.494</v>
+        <v>-7.784999999999999</v>
       </c>
       <c r="E31" t="n">
         <v>15.44</v>
@@ -978,13 +978,13 @@
         <v>3.16</v>
       </c>
       <c r="C32" t="n">
-        <v>-13.812</v>
+        <v>-13.244</v>
       </c>
       <c r="D32" t="n">
         <v>-8.69</v>
       </c>
       <c r="E32" t="n">
-        <v>16.772</v>
+        <v>16.533</v>
       </c>
     </row>
     <row r="33">
@@ -1032,7 +1032,7 @@
         <v>-13.02</v>
       </c>
       <c r="D35" t="n">
-        <v>-7.298</v>
+        <v>-7.854000000000001</v>
       </c>
       <c r="E35" t="n">
         <v>15.78</v>
@@ -1046,7 +1046,7 @@
         <v>9.84</v>
       </c>
       <c r="C36" t="n">
-        <v>-12.84</v>
+        <v>-12.721</v>
       </c>
       <c r="D36" t="n">
         <v>-9.050000000000001</v>
@@ -1066,7 +1066,7 @@
         <v>-12.29</v>
       </c>
       <c r="D37" t="n">
-        <v>-7.164</v>
+        <v>-7.632</v>
       </c>
       <c r="E37" t="n">
         <v>16.03</v>
@@ -1080,7 +1080,7 @@
         <v>9.66</v>
       </c>
       <c r="C38" t="n">
-        <v>-12.152</v>
+        <v>-12.608</v>
       </c>
       <c r="D38" t="n">
         <v>-9.09</v>
@@ -1100,7 +1100,7 @@
         <v>-10.58</v>
       </c>
       <c r="D39" t="n">
-        <v>-7.744</v>
+        <v>-7.218000000000001</v>
       </c>
       <c r="E39" t="n">
         <v>16.91</v>
@@ -1117,7 +1117,7 @@
         <v>-12.94</v>
       </c>
       <c r="D40" t="n">
-        <v>-7.348000000000001</v>
+        <v>-7.853999999999999</v>
       </c>
       <c r="E40" t="n">
         <v>16.16</v>
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.228</v>
+        <v>16.489</v>
       </c>
     </row>
     <row r="45">
@@ -1202,7 +1202,7 @@
         <v>-11</v>
       </c>
       <c r="D45" t="n">
-        <v>-7.546000000000001</v>
+        <v>-7.94</v>
       </c>
       <c r="E45" t="n">
         <v>16.85</v>
@@ -1216,7 +1216,7 @@
         <v>4.17</v>
       </c>
       <c r="C46" t="n">
-        <v>-15.162</v>
+        <v>-13.817</v>
       </c>
       <c r="D46" t="n">
         <v>-8.09</v>
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.464</v>
+        <v>16.386</v>
       </c>
     </row>
     <row r="48">
@@ -1321,7 +1321,7 @@
         <v>-14.35</v>
       </c>
       <c r="D52" t="n">
-        <v>-7.648000000000001</v>
+        <v>-7.385000000000001</v>
       </c>
       <c r="E52" t="n">
         <v>17.44</v>
@@ -1352,7 +1352,7 @@
         <v>6.01</v>
       </c>
       <c r="C54" t="n">
-        <v>-12.378</v>
+        <v>-13.141</v>
       </c>
       <c r="D54" t="n">
         <v>-8.01</v>
@@ -1369,7 +1369,7 @@
         <v>5.38</v>
       </c>
       <c r="C55" t="n">
-        <v>-13.152</v>
+        <v>-13.53</v>
       </c>
       <c r="D55" t="n">
         <v>-10.06</v>
@@ -1386,7 +1386,7 @@
         <v>4.42</v>
       </c>
       <c r="C56" t="n">
-        <v>-13.19</v>
+        <v>-13.364</v>
       </c>
       <c r="D56" t="n">
         <v>-8.92</v>
@@ -1406,7 +1406,7 @@
         <v>-15.01</v>
       </c>
       <c r="D57" t="n">
-        <v>-8.565999999999999</v>
+        <v>-8.451000000000001</v>
       </c>
       <c r="E57" t="n">
         <v>16.41</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.12</v>
+        <v>16.456</v>
       </c>
     </row>
     <row r="59">
@@ -1494,7 +1494,7 @@
         <v>-8.5</v>
       </c>
       <c r="E62" t="n">
-        <v>16.362</v>
+        <v>16.251</v>
       </c>
     </row>
     <row r="63">
@@ -1573,7 +1573,7 @@
         <v>5.53</v>
       </c>
       <c r="C67" t="n">
-        <v>-11.25</v>
+        <v>-11.661</v>
       </c>
       <c r="D67" t="n">
         <v>-6.43</v>
@@ -1607,7 +1607,7 @@
         <v>4.98</v>
       </c>
       <c r="C69" t="n">
-        <v>-11.026</v>
+        <v>-10.751</v>
       </c>
       <c r="D69" t="n">
         <v>-6.88</v>
@@ -1658,7 +1658,7 @@
         <v>6.81</v>
       </c>
       <c r="C72" t="n">
-        <v>-11.984</v>
+        <v>-11.555</v>
       </c>
       <c r="D72" t="n">
         <v>-7.37</v>
@@ -1675,7 +1675,7 @@
         <v>10.24</v>
       </c>
       <c r="C73" t="n">
-        <v>-11.696</v>
+        <v>-12.464</v>
       </c>
       <c r="D73" t="n">
         <v>-6.42</v>
@@ -1749,7 +1749,7 @@
         <v>-6.2</v>
       </c>
       <c r="E77" t="n">
-        <v>16.85</v>
+        <v>16.598</v>
       </c>
     </row>
     <row r="78">
@@ -1766,7 +1766,7 @@
         <v>-6.53</v>
       </c>
       <c r="E78" t="n">
-        <v>16.274</v>
+        <v>16.391</v>
       </c>
     </row>
     <row r="79">
@@ -1814,7 +1814,7 @@
         <v>-11.36</v>
       </c>
       <c r="D81" t="n">
-        <v>-7.590000000000001</v>
+        <v>-7.085000000000001</v>
       </c>
       <c r="E81" t="n">
         <v>17.6</v>
@@ -1845,10 +1845,10 @@
         <v>5.84</v>
       </c>
       <c r="C83" t="n">
-        <v>-13.474</v>
+        <v>-13.314</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.627999999999998</v>
+        <v>-8.413999999999998</v>
       </c>
       <c r="E83" t="n">
         <v>16.38</v>
@@ -1868,7 +1868,7 @@
         <v>-8.34</v>
       </c>
       <c r="E84" t="n">
-        <v>16.356</v>
+        <v>16.438</v>
       </c>
     </row>
     <row r="85">
@@ -1896,7 +1896,7 @@
         <v>4.69</v>
       </c>
       <c r="C86" t="n">
-        <v>-13.526</v>
+        <v>-13.846</v>
       </c>
       <c r="D86" t="n">
         <v>-8.17</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.254</v>
+        <v>17.142</v>
       </c>
     </row>
     <row r="90">
@@ -1981,13 +1981,13 @@
         <v>4.28</v>
       </c>
       <c r="C91" t="n">
-        <v>-11.958</v>
+        <v>-11.175</v>
       </c>
       <c r="D91" t="n">
         <v>-5.79</v>
       </c>
       <c r="E91" t="n">
-        <v>16.764</v>
+        <v>16.983</v>
       </c>
     </row>
     <row r="92">
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>16.328</v>
+        <v>16.883</v>
       </c>
     </row>
     <row r="93">
@@ -2015,7 +2015,7 @@
         <v>7.55</v>
       </c>
       <c r="C93" t="n">
-        <v>-11.788</v>
+        <v>-11.979</v>
       </c>
       <c r="D93" t="n">
         <v>-6.1</v>
@@ -2072,7 +2072,7 @@
         <v>-8.529999999999999</v>
       </c>
       <c r="E96" t="n">
-        <v>16.236</v>
+        <v>16.566</v>
       </c>
     </row>
     <row r="97">
@@ -2117,7 +2117,7 @@
         <v>8.42</v>
       </c>
       <c r="C99" t="n">
-        <v>-12.844</v>
+        <v>-12.635</v>
       </c>
       <c r="D99" t="n">
         <v>-7.98</v>
@@ -2137,7 +2137,7 @@
         <v>-14.32</v>
       </c>
       <c r="D100" t="n">
-        <v>-8.540000000000001</v>
+        <v>-7.998</v>
       </c>
       <c r="E100" t="n">
         <v>15.6</v>
@@ -2171,10 +2171,10 @@
         <v>-12</v>
       </c>
       <c r="D102" t="n">
-        <v>-8.358000000000001</v>
+        <v>-7.642</v>
       </c>
       <c r="E102" t="n">
-        <v>16.546</v>
+        <v>16.321</v>
       </c>
     </row>
   </sheetData>
